--- a/Pengujian/hp_stratified_result.xlsx
+++ b/Pengujian/hp_stratified_result.xlsx
@@ -5,21 +5,22 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre\Documents\Pengujian\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Skripsi\Buku\Thesis\Pengujian\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="hp_stratified_result" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="38">
   <si>
     <t>Data: House Price</t>
   </si>
@@ -121,13 +122,25 @@
   </si>
   <si>
     <t>Time. Logistic Regression</t>
+  </si>
+  <si>
+    <t>Sampling</t>
+  </si>
+  <si>
+    <t>Reg.Tree</t>
+  </si>
+  <si>
+    <t>Recommender</t>
+  </si>
+  <si>
+    <t>Time</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,6 +271,21 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -619,7 +647,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -627,6 +655,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -951,8 +986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59:J66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2588,9 +2623,18 @@
         <f t="shared" si="10"/>
         <v>1.7975892165947218</v>
       </c>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
-      <c r="J65" s="2"/>
+      <c r="H65" s="2">
+        <f>AVERAGE(H60:H64)</f>
+        <v>0.21333333333333324</v>
+      </c>
+      <c r="I65" s="2">
+        <f t="shared" ref="I65:J65" si="12">AVERAGE(I60:I64)</f>
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="J65" s="2">
+        <f t="shared" si="12"/>
+        <v>5.2078730529229578</v>
+      </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
@@ -2620,18 +2664,979 @@
         <f t="shared" si="10"/>
         <v>4.8347680081823441E-2</v>
       </c>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
+      <c r="H66" s="2">
+        <f>AVERAGE(H61:H65)</f>
+        <v>0.21599999999999991</v>
+      </c>
+      <c r="I66" s="2">
+        <f t="shared" ref="I66:J66" si="13">AVERAGE(I61:I65)</f>
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="J66" s="2">
+        <f t="shared" si="13"/>
+        <v>5.212144335882515</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A58:J58"/>
     <mergeCell ref="A16:J16"/>
     <mergeCell ref="A24:J24"/>
     <mergeCell ref="A32:J32"/>
     <mergeCell ref="A40:J40"/>
     <mergeCell ref="A48:J48"/>
-    <mergeCell ref="A58:J58"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="H2" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="I2" s="4">
+        <v>67756.245289609811</v>
+      </c>
+      <c r="J2" s="4">
+        <v>85831.020540379948</v>
+      </c>
+      <c r="K2" s="4">
+        <v>87315.663348957445</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0.19999999999999979</v>
+      </c>
+      <c r="M2" s="4">
+        <v>5.1865166381251777</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="B3" s="4">
+        <v>62882.919715853997</v>
+      </c>
+      <c r="C3" s="4">
+        <v>79033.169954196404</v>
+      </c>
+      <c r="D3" s="4">
+        <v>67695.169621703797</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F3" s="4">
+        <v>5.0476795621422497</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="I3" s="4">
+        <v>64878.555457332652</v>
+      </c>
+      <c r="J3" s="4">
+        <v>80189.575055462279</v>
+      </c>
+      <c r="K3" s="4">
+        <v>89392.124488059111</v>
+      </c>
+      <c r="L3" s="4">
+        <v>6.6666666666666596E-2</v>
+      </c>
+      <c r="M3" s="4">
+        <v>5.175205997231858</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="B4" s="4">
+        <v>59828.502430818298</v>
+      </c>
+      <c r="C4" s="4">
+        <v>74341.175656098902</v>
+      </c>
+      <c r="D4" s="4">
+        <v>81008.963633695006</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>5.17333860666698</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="I4" s="4">
+        <v>70094.909737131253</v>
+      </c>
+      <c r="J4" s="4">
+        <v>85134.976545932033</v>
+      </c>
+      <c r="K4" s="4">
+        <v>90750.523419632242</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0.26666666666666661</v>
+      </c>
+      <c r="M4" s="4">
+        <v>5.1755289950267382</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="B5" s="4">
+        <v>59510.4590105276</v>
+      </c>
+      <c r="C5" s="4">
+        <v>78687.202593169801</v>
+      </c>
+      <c r="D5" s="4">
+        <v>76652.854270220196</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F5" s="4">
+        <v>5.1306447640048702</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="I5" s="4">
+        <v>63891.719945647426</v>
+      </c>
+      <c r="J5" s="4">
+        <v>79541.884051043278</v>
+      </c>
+      <c r="K5" s="4">
+        <v>87923.654530612432</v>
+      </c>
+      <c r="L5" s="4">
+        <v>6.6666666666666596E-2</v>
+      </c>
+      <c r="M5" s="4">
+        <v>5.26948286630852</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="B6" s="4">
+        <v>59855.716342033797</v>
+      </c>
+      <c r="C6" s="4">
+        <v>74101.957217164701</v>
+      </c>
+      <c r="D6" s="4">
+        <v>88510.411060344995</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>5.3730386277798603</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="4">
+        <v>66546.866359883817</v>
+      </c>
+      <c r="J6" s="4">
+        <v>80873.513227490679</v>
+      </c>
+      <c r="K6" s="4">
+        <v>75617.264613729858</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="M6" s="4">
+        <v>5.2326307679224966</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="B7" s="4">
+        <v>61024.684416038101</v>
+      </c>
+      <c r="C7" s="4">
+        <v>76040.7079751821</v>
+      </c>
+      <c r="D7" s="4">
+        <v>69169.9632822766</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F7" s="4">
+        <v>5.2224693130102304</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="4">
+        <v>66633.659357920988</v>
+      </c>
+      <c r="J7" s="4">
+        <v>82314.193884061649</v>
+      </c>
+      <c r="K7" s="4">
+        <v>86199.846080198215</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0.21333333333333324</v>
+      </c>
+      <c r="M7" s="4">
+        <v>5.2078730529229578</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="4">
+        <f>AVERAGE(B3:B7)</f>
+        <v>60620.456383054356</v>
+      </c>
+      <c r="C8" s="4">
+        <f t="shared" ref="C8:E8" si="0">AVERAGE(C3:C7)</f>
+        <v>76440.842679162379</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>76607.47237364811</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" si="0"/>
+        <v>0.19999999999999979</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="H8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="4">
+        <v>4772.5462943382399</v>
+      </c>
+      <c r="J8" s="4">
+        <v>3640.3246999229182</v>
+      </c>
+      <c r="K8" s="4">
+        <v>11734.319676200968</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0.21599999999999991</v>
+      </c>
+      <c r="M8" s="4">
+        <v>5.212144335882515</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="4">
+        <f>_xlfn.STDEV.P(B3:B7)</f>
+        <v>1243.0811071471974</v>
+      </c>
+      <c r="C9" s="4">
+        <f t="shared" ref="C9:D9" si="1">_xlfn.STDEV.P(C3:C7)</f>
+        <v>2088.3193317861369</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="1"/>
+        <v>7691.5644186942764</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="B11" s="4">
+        <v>54204.061052875797</v>
+      </c>
+      <c r="C11" s="4">
+        <v>83648.202678033005</v>
+      </c>
+      <c r="D11" s="4">
+        <v>91228.589779483504</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>5.3306284894904703</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="B12" s="4">
+        <v>71459.082959328895</v>
+      </c>
+      <c r="C12" s="4">
+        <v>83223.451384861604</v>
+      </c>
+      <c r="D12" s="4">
+        <v>86862.980051265302</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>5.2141377879562603</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="B13" s="4">
+        <v>71100.998628880407</v>
+      </c>
+      <c r="C13" s="4">
+        <v>83086.214521252507</v>
+      </c>
+      <c r="D13" s="4">
+        <v>69324.268721638393</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4">
+        <v>5.1991850280332104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="B14" s="4">
+        <v>70204.498142593598</v>
+      </c>
+      <c r="C14" s="4">
+        <v>84646.637717834499</v>
+      </c>
+      <c r="D14" s="4">
+        <v>101453.710452171</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>5.3533449991789404</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="B15" s="4">
+        <v>72534.460679521202</v>
+      </c>
+      <c r="C15" s="4">
+        <v>79156.704388863407</v>
+      </c>
+      <c r="D15" s="4">
+        <v>66745.179591127497</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+      <c r="F15" s="4">
+        <v>5.6928592269165801</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="4">
+        <f>AVERAGE(B11:B15)</f>
+        <v>67900.620292639971</v>
+      </c>
+      <c r="C16" s="4">
+        <f t="shared" ref="C16:E16" si="2">AVERAGE(C11:C15)</f>
+        <v>82752.242138169007</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="2"/>
+        <v>83122.945719137133</v>
+      </c>
+      <c r="E16" s="4">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="4">
+        <f>_xlfn.STDEV.P(B11:B15)</f>
+        <v>6888.8481320503242</v>
+      </c>
+      <c r="C17" s="4">
+        <f t="shared" ref="C17:D17" si="3">_xlfn.STDEV.P(C11:C15)</f>
+        <v>1878.9862859937109</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" si="3"/>
+        <v>13223.773806001402</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="B19" s="4">
+        <v>82858.549692160595</v>
+      </c>
+      <c r="C19" s="4">
+        <v>89782.857893247798</v>
+      </c>
+      <c r="D19" s="4">
+        <v>84468.3237048351</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F19" s="4">
+        <v>5.2911620589753303</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="B20" s="4">
+        <v>64697.773138637902</v>
+      </c>
+      <c r="C20" s="4">
+        <v>75307.108770131003</v>
+      </c>
+      <c r="D20" s="4">
+        <v>92102.7405208485</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0</v>
+      </c>
+      <c r="F20" s="4">
+        <v>5.0800757424697398</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="B21" s="4">
+        <v>80593.762050514793</v>
+      </c>
+      <c r="C21" s="4">
+        <v>85251.086509003493</v>
+      </c>
+      <c r="D21" s="4">
+        <v>100155.217385289</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4">
+        <v>5.1143588867645597</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="B22" s="4">
+        <v>68370.717952075502</v>
+      </c>
+      <c r="C22" s="4">
+        <v>81930.156591508407</v>
+      </c>
+      <c r="D22" s="4">
+        <v>103695.33009529101</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4">
+        <v>5.28539450302618</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="B23" s="4">
+        <v>64949.207504471597</v>
+      </c>
+      <c r="C23" s="4">
+        <v>76332.425391748693</v>
+      </c>
+      <c r="D23" s="4">
+        <v>61580.456821192201</v>
+      </c>
+      <c r="E23" s="4">
+        <v>1</v>
+      </c>
+      <c r="F23" s="4">
+        <v>5.1631373451721796</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="4">
+        <f>AVERAGE(B19:B23)</f>
+        <v>72294.002067572073</v>
+      </c>
+      <c r="C24" s="4">
+        <f t="shared" ref="C24:E24" si="4">AVERAGE(C19:C23)</f>
+        <v>81720.72703112787</v>
+      </c>
+      <c r="D24" s="4">
+        <f t="shared" si="4"/>
+        <v>88400.413705491155</v>
+      </c>
+      <c r="E24" s="4">
+        <f t="shared" si="4"/>
+        <v>0.26666666666666661</v>
+      </c>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="4">
+        <f>_xlfn.STDEV.P(B19:B23)</f>
+        <v>7842.6595189703876</v>
+      </c>
+      <c r="C25" s="4">
+        <f t="shared" ref="C25:D25" si="5">_xlfn.STDEV.P(C19:C23)</f>
+        <v>5434.5845577461178</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" si="5"/>
+        <v>14970.561244109645</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="B27" s="4">
+        <v>67722.990201462802</v>
+      </c>
+      <c r="C27" s="4">
+        <v>90563.954231173193</v>
+      </c>
+      <c r="D27" s="4">
+        <v>85688.908692598794</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F27" s="4">
+        <v>5.2414008984705003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="B28" s="4">
+        <v>65627.324473329005</v>
+      </c>
+      <c r="C28" s="4">
+        <v>81002.013064038503</v>
+      </c>
+      <c r="D28" s="4">
+        <v>79305.370280187795</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F28" s="4">
+        <v>5.2979090181335904</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="B29" s="4">
+        <v>65360.773843291397</v>
+      </c>
+      <c r="C29" s="4">
+        <v>86768.921902065995</v>
+      </c>
+      <c r="D29" s="4">
+        <v>95329.926561388595</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0</v>
+      </c>
+      <c r="F29" s="4">
+        <v>5.2516219532935997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="B30" s="4">
+        <v>58062.268100773203</v>
+      </c>
+      <c r="C30" s="4">
+        <v>73975.613443002803</v>
+      </c>
+      <c r="D30" s="4">
+        <v>76795.219655864406</v>
+      </c>
+      <c r="E30" s="4">
+        <v>0</v>
+      </c>
+      <c r="F30" s="4">
+        <v>5.2573700824575198</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="B31" s="4">
+        <v>63224.574409906199</v>
+      </c>
+      <c r="C31" s="4">
+        <v>87558.101973405894</v>
+      </c>
+      <c r="D31" s="4">
+        <v>90143.127523682706</v>
+      </c>
+      <c r="E31" s="4">
+        <v>0</v>
+      </c>
+      <c r="F31" s="4">
+        <v>5.0204813297598001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="4">
+        <f>AVERAGE(B27:B31)</f>
+        <v>63999.586205752523</v>
+      </c>
+      <c r="C32" s="4">
+        <f t="shared" ref="C32:E32" si="6">AVERAGE(C27:C31)</f>
+        <v>83973.720922737266</v>
+      </c>
+      <c r="D32" s="4">
+        <f t="shared" si="6"/>
+        <v>85452.510542744451</v>
+      </c>
+      <c r="E32" s="4">
+        <f t="shared" si="6"/>
+        <v>0.13333333333333319</v>
+      </c>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="4">
+        <f>_xlfn.STDEV.P(B27:B31)</f>
+        <v>3292.9770886238794</v>
+      </c>
+      <c r="C33" s="4">
+        <f t="shared" ref="C33:D33" si="7">_xlfn.STDEV.P(C27:C31)</f>
+        <v>5880.2263878974109</v>
+      </c>
+      <c r="D33" s="4">
+        <f t="shared" si="7"/>
+        <v>6816.9954944988804</v>
+      </c>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="B35" s="4">
+        <v>71112.7057856959</v>
+      </c>
+      <c r="C35" s="4">
+        <v>86126.917945249297</v>
+      </c>
+      <c r="D35" s="4">
+        <v>107497.324946166</v>
+      </c>
+      <c r="E35" s="4">
+        <v>0</v>
+      </c>
+      <c r="F35" s="4">
+        <v>5.0217121815473398</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="B36" s="4">
+        <v>62780.094284549101</v>
+      </c>
+      <c r="C36" s="4">
+        <v>87074.126402181399</v>
+      </c>
+      <c r="D36" s="4">
+        <v>107680.567954299</v>
+      </c>
+      <c r="E36" s="4">
+        <v>0</v>
+      </c>
+      <c r="F36" s="4">
+        <v>5.1105688309327197</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="B37" s="4">
+        <v>73908.555152442103</v>
+      </c>
+      <c r="C37" s="4">
+        <v>91881.4572041684</v>
+      </c>
+      <c r="D37" s="4">
+        <v>112290.350159625</v>
+      </c>
+      <c r="E37" s="4">
+        <v>0</v>
+      </c>
+      <c r="F37" s="4">
+        <v>5.1818343430374503</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="B38" s="4">
+        <v>62965.399190761003</v>
+      </c>
+      <c r="C38" s="4">
+        <v>83055.055285705996</v>
+      </c>
+      <c r="D38" s="4">
+        <v>69163.601389390693</v>
+      </c>
+      <c r="E38" s="4">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F38" s="4">
+        <v>5.0782661191000997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="B39" s="4">
+        <v>71001.404789481996</v>
+      </c>
+      <c r="C39" s="4">
+        <v>85279.626408253302</v>
+      </c>
+      <c r="D39" s="4">
+        <v>90447.5958503703</v>
+      </c>
+      <c r="E39" s="4">
+        <v>0</v>
+      </c>
+      <c r="F39" s="4">
+        <v>5.0642066247536901</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="4">
+        <f>AVERAGE(B35:B39)</f>
+        <v>68353.631840586022</v>
+      </c>
+      <c r="C40" s="4">
+        <f t="shared" ref="C40:E40" si="8">AVERAGE(C35:C39)</f>
+        <v>86683.436649111682</v>
+      </c>
+      <c r="D40" s="4">
+        <f t="shared" si="8"/>
+        <v>97415.888059970195</v>
+      </c>
+      <c r="E40" s="4">
+        <f t="shared" si="8"/>
+        <v>6.6666666666666596E-2</v>
+      </c>
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41" s="4">
+        <f>_xlfn.STDEV.P(B35:B39)</f>
+        <v>4595.1656248994104</v>
+      </c>
+      <c r="C41" s="4">
+        <f t="shared" ref="C41:D41" si="9">_xlfn.STDEV.P(C35:C39)</f>
+        <v>2919.5069361912147</v>
+      </c>
+      <c r="D41" s="4">
+        <f t="shared" si="9"/>
+        <v>15968.703417700641</v>
+      </c>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A34:F34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
